--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Report_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Report_Unit-Test-Case.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoang Linh\Desktop\201605JS01\WIP\Users\LinhNH\Veazy_Unit_Test_Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -52,11 +52,11 @@
     <definedName name="getLessonVersion" localSheetId="7">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="4">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">deleteReport!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">getAllReports!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">getReport!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">readReport!$A$1:$T$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">saveReport!$A$1:$T$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">deleteReport!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">getAllReports!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">getReport!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">readReport!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">saveReport!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">機能一覧!$A$1:$H$39</definedName>
@@ -174,26 +174,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -213,26 +197,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,26 +220,10 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,26 +243,10 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,26 +266,10 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Nguyen Hoang Anh</author>
     <author>ANa</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not mandatory
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="151">
   <si>
     <r>
       <rPr>
@@ -716,9 +636,6 @@
     <t>UTCID03</t>
   </si>
   <si>
-    <t>Can connect with server</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -770,9 +687,6 @@
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t>&lt;Brief description about requirements which are tested in this function&gt;</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -825,17 +739,6 @@
         <family val="2"/>
       </rPr>
       <t>漏れた項目数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>テスト要求</t>
     </r>
   </si>
   <si>
@@ -873,9 +776,6 @@
   </si>
   <si>
     <t>Exception</t>
-  </si>
-  <si>
-    <t>Log message</t>
   </si>
   <si>
     <t xml:space="preserve"> - In the template, Unit test cases are based on functions. Each sheet presents test cases for one function.</t>
@@ -1335,6 +1235,15 @@
   </si>
   <si>
     <t>Veazy_Report_Unit_Test_Case_v1.0</t>
+  </si>
+  <si>
+    <t>Application Context Initialized</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>null exception</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2623,32 +2532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -2657,62 +2540,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2847,34 +2674,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3071,7 +2870,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3339,9 +3138,6 @@
     <xf numFmtId="0" fontId="39" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="54" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="29" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
@@ -3367,9 +3163,6 @@
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="38" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3381,9 +3174,6 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="41" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="57" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="29" borderId="28" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3404,38 +3194,23 @@
     <xf numFmtId="0" fontId="39" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="54" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="165" fontId="35" fillId="29" borderId="32" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="29" borderId="54" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="255" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="63" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="57" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="31" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -3446,25 +3221,22 @@
     <xf numFmtId="0" fontId="53" fillId="31" borderId="52" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="180" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="31" borderId="53" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="62" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="56" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="53" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="31" borderId="54" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="31" borderId="55" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="62" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="55" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="60" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="31" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3557,11 +3329,9 @@
     <xf numFmtId="0" fontId="61" fillId="29" borderId="30" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="24" borderId="83" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="24" fillId="24" borderId="75" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="44" fillId="29" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="32" borderId="13" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -3578,6 +3348,12 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3654,7 +3430,94 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="79" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3666,119 +3529,23 @@
     <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="80" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="72" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="81" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="73" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="82" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="70" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="68" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="69" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="71" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="72" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="78" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="77" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="75" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="73" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="74" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="37" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="15" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4007,9 +3774,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4039,7 +3804,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4463,7 +4228,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4717,9 +4482,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4746,7 +4509,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5174,7 +4937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5751,7 +5514,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="64" customFormat="1" ht="22.5">
       <c r="A1" s="63" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="64" customFormat="1" ht="22.5">
@@ -5759,37 +5522,37 @@
     </row>
     <row r="3" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A3" s="65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="38.25">
       <c r="A6" s="69" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="29.25" customHeight="1">
       <c r="A7" s="69" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30" customHeight="1">
       <c r="A8" s="70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="72" customFormat="1" ht="16.5" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" customHeight="1">
@@ -5797,27 +5560,27 @@
     </row>
     <row r="11" spans="1:1" s="66" customFormat="1" ht="18">
       <c r="A11" s="65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="75" customFormat="1" ht="15">
       <c r="A12" s="74" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="25.5">
       <c r="A13" s="67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -5825,136 +5588,136 @@
     </row>
     <row r="17" spans="1:4" s="75" customFormat="1" ht="15">
       <c r="A17" s="74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" s="73"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B20" s="73"/>
     </row>
     <row r="21" spans="1:4" ht="25.5">
       <c r="A21" s="69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="67" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="73"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="67" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" s="73"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="73"/>
       <c r="C25" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="67" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B27" s="73"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="67" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B30" s="73"/>
       <c r="C30" s="73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="74" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1">
       <c r="A32" s="69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="67" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B35" s="73"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" s="73"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="74" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="38.25">
       <c r="A39" s="70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B39" s="73"/>
     </row>
@@ -5964,42 +5727,42 @@
     </row>
     <row r="41" spans="1:2" s="75" customFormat="1" ht="15">
       <c r="A41" s="74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="67" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="67" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -6022,193 +5785,193 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="179" customWidth="1"/>
-    <col min="2" max="2" width="10" style="154" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="154" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="154" customWidth="1"/>
-    <col min="5" max="5" width="38" style="154" customWidth="1"/>
-    <col min="6" max="6" width="48.25" style="154" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="154"/>
+    <col min="1" max="1" width="21.375" style="170" customWidth="1"/>
+    <col min="2" max="2" width="10" style="145" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="145" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="145" customWidth="1"/>
+    <col min="5" max="5" width="38" style="145" customWidth="1"/>
+    <col min="6" max="6" width="48.25" style="145" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="145"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="151" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="193" t="s">
+    <row r="2" spans="1:6" s="142" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A2" s="141"/>
+      <c r="B2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="E3" s="155"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="E3" s="146"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="156" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="194" t="s">
+      <c r="A4" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="149"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="188" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="176">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A7" s="187"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="150"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="155"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="145"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+    </row>
+    <row r="10" spans="1:6" ht="15">
+      <c r="A10" s="157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="158" customFormat="1" ht="15">
+      <c r="A11" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="177" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="157" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="158" t="s">
+      <c r="C11" s="178" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="157" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="195" t="s">
+      <c r="D11" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="178" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="156" t="s">
+      <c r="F11" s="173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="163" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A12" s="179">
+        <v>42583</v>
+      </c>
+      <c r="B12" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="158"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="197" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="157" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="187">
-        <v>42583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="196"/>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="159"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="160"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="154"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-    </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="167" customFormat="1" ht="15">
-      <c r="A11" s="180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="188" t="s">
+      <c r="C12" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="D12" s="160" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="181" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="189" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="182" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="172" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="190">
-        <v>42583</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="169" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="169" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="170" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="162" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="172" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="173"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="174"/>
-    </row>
-    <row r="14" spans="1:6" s="172" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A14" s="173"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="174"/>
-    </row>
-    <row r="15" spans="1:6" s="172" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="173"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="174"/>
-    </row>
-    <row r="16" spans="1:6" s="172" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A16" s="173"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="174"/>
-    </row>
-    <row r="17" spans="1:6" s="172" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="173"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="174"/>
-    </row>
-    <row r="18" spans="1:6" s="172" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="175"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="178"/>
+    <row r="13" spans="1:6" s="163" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="164"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="165"/>
+    </row>
+    <row r="14" spans="1:6" s="163" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="164"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="165"/>
+    </row>
+    <row r="15" spans="1:6" s="163" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="164"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="165"/>
+    </row>
+    <row r="16" spans="1:6" s="163" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A16" s="164"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="165"/>
+    </row>
+    <row r="17" spans="1:6" s="163" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="164"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="165"/>
+    </row>
+    <row r="18" spans="1:6" s="163" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="166"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6268,40 +6031,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="202"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="191" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="193"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="200" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="202"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="191" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="193"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="206" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
+      <c r="A6" s="197" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="199"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -6310,18 +6073,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="198" t="s">
+      <c r="A7" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="205"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="196"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6357,7 +6120,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>19</v>
@@ -6370,107 +6133,107 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5">
-      <c r="A11" s="184">
+      <c r="A11" s="175">
         <v>1</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="260" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="F11" s="182" t="s">
+        <v>146</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="13.5">
-      <c r="A12" s="184">
+      <c r="A12" s="175">
         <v>2</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="260" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F12" s="182" t="s">
+        <v>130</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="13.5">
-      <c r="A13" s="184">
+      <c r="A13" s="175">
         <v>3</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="260" t="s">
-        <v>138</v>
+        <v>134</v>
+      </c>
+      <c r="F13" s="182" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="13.5">
-      <c r="A14" s="184">
+      <c r="A14" s="175">
         <v>4</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="260" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="F14" s="182" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="13.5">
-      <c r="A15" s="184">
+      <c r="A15" s="175">
         <v>5</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="260" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="F15" s="182" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="184"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="31"/>
@@ -6480,7 +6243,7 @@
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="184"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="30"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
@@ -6490,7 +6253,7 @@
       <c r="H17" s="28"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="184"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
@@ -6559,7 +6322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -6577,17 +6340,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
-      <c r="G2" s="210"/>
-      <c r="H2" s="210"/>
-      <c r="I2" s="210"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -6602,74 +6365,74 @@
     </row>
     <row r="4" spans="1:9" ht="13.5" customHeight="1">
       <c r="A4" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="211" t="str">
+        <v>109</v>
+      </c>
+      <c r="B4" s="202" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="212" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="212"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="215"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="206"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="211" t="str">
+      <c r="B5" s="202" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="211"/>
-      <c r="D5" s="212" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="215"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="206"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="211" t="str">
+      <c r="B6" s="202" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="211"/>
-      <c r="D6" s="212" t="s">
+      <c r="C6" s="202"/>
+      <c r="D6" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="216">
+      <c r="E6" s="203"/>
+      <c r="F6" s="207">
         <v>42585</v>
       </c>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="218"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="209" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -6709,7 +6472,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>24</v>
@@ -6721,13 +6484,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="44" t="s">
         <v>40</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>41</v>
       </c>
       <c r="I11" s="45" t="s">
         <v>27</v>
@@ -6737,71 +6500,71 @@
       <c r="A12" s="46">
         <v>1</v>
       </c>
-      <c r="B12" s="260" t="s">
-        <v>150</v>
+      <c r="B12" s="182" t="s">
+        <v>146</v>
       </c>
       <c r="C12" s="47">
-        <f>saveReport!A7</f>
+        <f>saveReport!A6</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="47">
+        <f>saveReport!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="47">
+        <f>saveReport!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <f>saveReport!L6</f>
         <v>1</v>
       </c>
-      <c r="D12" s="47">
-        <f>saveReport!C7</f>
+      <c r="G12" s="47">
+        <f>saveReport!M6</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="47">
+        <f>saveReport!N6</f>
         <v>0</v>
       </c>
-      <c r="E12" s="47">
-        <f>saveReport!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="48">
-        <f>saveReport!L7</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="47">
-        <f>saveReport!M7</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="47">
-        <f>saveReport!N7</f>
-        <v>0</v>
-      </c>
       <c r="I12" s="47">
-        <f>saveReport!O7</f>
-        <v>1</v>
+        <f>saveReport!O6</f>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.5">
       <c r="A13" s="46">
         <v>2</v>
       </c>
-      <c r="B13" s="260" t="s">
-        <v>134</v>
+      <c r="B13" s="182" t="s">
+        <v>130</v>
       </c>
       <c r="C13" s="47">
-        <f>getReport!A7</f>
+        <f>getReport!A6</f>
         <v>3</v>
       </c>
       <c r="D13" s="47">
-        <f>getReport!C7</f>
+        <f>getReport!C6</f>
         <v>0</v>
       </c>
       <c r="E13" s="47">
-        <f>getReport!F7</f>
+        <f>getReport!F6</f>
         <v>0</v>
       </c>
       <c r="F13" s="48">
-        <f>getReport!L7</f>
+        <f>getReport!L6</f>
         <v>1</v>
       </c>
       <c r="G13" s="47">
-        <f>getReport!M7</f>
+        <f>getReport!M6</f>
         <v>2</v>
       </c>
       <c r="H13" s="47">
-        <f>getReport!N7</f>
+        <f>getReport!N6</f>
         <v>0</v>
       </c>
       <c r="I13" s="47">
-        <f>getReport!O7</f>
+        <f>getReport!O6</f>
         <v>3</v>
       </c>
     </row>
@@ -6809,35 +6572,35 @@
       <c r="A14" s="46">
         <v>3</v>
       </c>
-      <c r="B14" s="260" t="s">
-        <v>138</v>
+      <c r="B14" s="182" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="47">
-        <f>getAllReports!A7</f>
+        <f>getAllReports!A6</f>
         <v>3</v>
       </c>
       <c r="D14" s="47">
-        <f>getAllReports!C7</f>
+        <f>getAllReports!C6</f>
         <v>0</v>
       </c>
       <c r="E14" s="47">
-        <f>getAllReports!F7</f>
+        <f>getAllReports!F6</f>
         <v>0</v>
       </c>
       <c r="F14" s="48">
-        <f>getAllReports!L7</f>
+        <f>getAllReports!L6</f>
         <v>1</v>
       </c>
       <c r="G14" s="47">
-        <f>getAllReports!M7</f>
+        <f>getAllReports!M6</f>
         <v>2</v>
       </c>
       <c r="H14" s="47">
-        <f>getAllReports!N7</f>
+        <f>getAllReports!N6</f>
         <v>0</v>
       </c>
       <c r="I14" s="47">
-        <f>getAllReports!O7</f>
+        <f>getAllReports!O6</f>
         <v>3</v>
       </c>
     </row>
@@ -6845,72 +6608,72 @@
       <c r="A15" s="46">
         <v>4</v>
       </c>
-      <c r="B15" s="260" t="s">
-        <v>143</v>
+      <c r="B15" s="182" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="47">
-        <f>readReport!A7</f>
+        <f>readReport!A6</f>
+        <v>3</v>
+      </c>
+      <c r="D15" s="47">
+        <f>readReport!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="47">
+        <f>readReport!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
+        <f>readReport!L6</f>
         <v>1</v>
       </c>
-      <c r="D15" s="47">
-        <f>readReport!C7</f>
+      <c r="G15" s="47">
+        <f>readReport!M6</f>
+        <v>2</v>
+      </c>
+      <c r="H15" s="47">
+        <f>readReport!N6</f>
         <v>0</v>
       </c>
-      <c r="E15" s="47">
-        <f>readReport!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="47">
-        <f>readReport!L7</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="47">
-        <f>readReport!M7</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="47">
-        <f>readReport!N7</f>
-        <v>0</v>
-      </c>
       <c r="I15" s="47">
-        <f>readReport!O7</f>
-        <v>1</v>
+        <f>readReport!O6</f>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5">
       <c r="A16" s="46">
         <v>5</v>
       </c>
-      <c r="B16" s="260" t="s">
-        <v>146</v>
+      <c r="B16" s="182" t="s">
+        <v>142</v>
       </c>
       <c r="C16" s="47">
-        <f>deleteReport!A7</f>
+        <f>deleteReport!A6</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="47">
+        <f>deleteReport!C6</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <f>deleteReport!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <f>deleteReport!L6</f>
         <v>1</v>
       </c>
-      <c r="D16" s="47">
-        <f>deleteReport!C7</f>
+      <c r="G16" s="47">
+        <f>deleteReport!M6</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="47">
+        <f>deleteReport!N6</f>
         <v>0</v>
       </c>
-      <c r="E16" s="47">
-        <f>deleteReport!F7</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="47">
-        <f>deleteReport!L7</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="47">
-        <f>deleteReport!M7</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="47">
-        <f>deleteReport!N7</f>
-        <v>0</v>
-      </c>
       <c r="I16" s="47">
-        <f>deleteReport!O7</f>
-        <v>1</v>
+        <f>deleteReport!O6</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6964,7 +6727,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -6980,7 +6743,7 @@
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -6988,7 +6751,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7023,7 +6786,7 @@
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="40"/>
       <c r="B24" s="78" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="62">
@@ -7040,12 +6803,12 @@
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="B25" s="78" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>55.555555555555557</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -7053,11 +6816,11 @@
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="B26" s="78" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>44.444444444444443</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -7108,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7130,60 +6893,60 @@
     <col min="22" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="F2" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="243" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="F2" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -7191,916 +6954,305 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228">
+        <v>300</v>
+      </c>
+      <c r="D4" s="229"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233">
+        <v>29</v>
+      </c>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="235"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="234">
-        <v>300</v>
-      </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="231" t="s">
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="238"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="218">
+        <f>COUNTIF(F19:HC19,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="219"/>
+      <c r="C6" s="220">
+        <f>COUNTIF(F19:HC19,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="90">
+        <f>COUNTIF(E18:HC18,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E18:HC18,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E18:HC18,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="223">
+        <f>COUNTA(E8:HF8)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="91"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="94"/>
+      <c r="I8" s="82"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="236">
-        <v>29</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="226" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="242" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="246">
-        <f>COUNTIF(F38:HQ38,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248">
-        <f>COUNTIF(F38:HQ38,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E37:HQ37,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E37:HQ37,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E37:HQ37,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="251">
-        <f>COUNTA(E9:HT9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="249"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="H10" s="89"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100"/>
-      <c r="V11" s="89"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="95"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="95" t="s">
+        <v>128</v>
+      </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
-      <c r="E13" s="102"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="95" t="s">
-        <v>132</v>
-      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="W15" s="89"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="104"/>
+      <c r="I14" s="89"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="183"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="89"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="89"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="138"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="183"/>
       <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="103"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="116"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="146" t="s">
+      <c r="G17" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="253" t="s">
+      <c r="C18" s="225"/>
+      <c r="D18" s="225"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="129"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="254" t="s">
+      <c r="G18" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="139"/>
+      <c r="B19" s="210" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131" t="s">
+      <c r="G19" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" s="139"/>
+      <c r="B20" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="255" t="s">
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G20" s="127">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A21" s="140"/>
+      <c r="B21" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-    </row>
-    <row r="40" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="137"/>
-    </row>
-    <row r="41" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+    </row>
+    <row r="22" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A22" s="92"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -8109,15 +7261,32 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16:G17 F9:G15">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8132,10 +7301,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8154,60 +7323,60 @@
     <col min="22" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="F2" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="243" t="s">
+        <v>133</v>
+      </c>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="F2" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="223" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8215,225 +7384,173 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228">
+        <v>300</v>
+      </c>
+      <c r="D4" s="229"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233">
+        <v>27</v>
+      </c>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="235"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="234">
-        <v>300</v>
-      </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="231" t="s">
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="238"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="218">
+        <f>COUNTIF(F24:HE24,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="219"/>
+      <c r="C6" s="220">
+        <f>COUNTIF(F24:HE24,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="90">
+        <f>COUNTIF(E23:HE23,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E23:HE23,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E23:HE23,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="223">
+        <f>COUNTA(E8:HH8)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="91"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="236">
-        <v>27</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="226" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="242" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="246">
-        <f>COUNTIF(F38:HQ38,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248">
-        <f>COUNTIF(F38:HQ38,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E37:HQ37,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E37:HQ37,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E37:HQ37,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="251">
-        <f>COUNTA(E9:HT9)</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="249"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100"/>
-      <c r="V11" s="89"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -8441,724 +7558,219 @@
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="95"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="95" t="s">
+        <v>132</v>
+      </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
-      <c r="E13" s="102"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="95" t="s">
-        <v>136</v>
-      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="99"/>
       <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="K14" s="89"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="99"/>
+      <c r="D15" s="174">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="W15" s="89"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="183">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="104"/>
+      <c r="D16" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="103"/>
       <c r="F16" s="99"/>
-      <c r="G16" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="103"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="181"/>
+      <c r="F18" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="118"/>
       <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="104"/>
+      <c r="G19" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="99"/>
       <c r="G20" s="99"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A21" s="138"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="118"/>
       <c r="F21" s="99"/>
       <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
+      <c r="H21" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A22" s="138"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="99"/>
       <c r="G22" s="99"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="116"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="119" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="146" t="s">
+      <c r="B23" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="253" t="s">
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="128" t="s">
+      <c r="G23" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A24" s="139"/>
+      <c r="B24" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="129"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="254" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131" t="s">
+      <c r="G24" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A25" s="139"/>
+      <c r="B25" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="255" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G25" s="127">
+        <v>39139</v>
+      </c>
+      <c r="H25" s="127">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A26" s="140"/>
+      <c r="B26" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="G39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="H39" s="133">
-        <v>39140</v>
-      </c>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-    </row>
-    <row r="40" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="137"/>
-    </row>
-    <row r="41" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9167,16 +7779,33 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
       <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H22">
+      <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -9190,10 +7819,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -9212,60 +7841,60 @@
     <col min="22" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="F2" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="243" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="F2" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="223" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -9273,950 +7902,393 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228">
+        <v>300</v>
+      </c>
+      <c r="D4" s="229"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233">
+        <v>27</v>
+      </c>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="235"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="234">
-        <v>300</v>
-      </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="231" t="s">
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="238"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="218">
+        <f>COUNTIF(F24:HE24,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="219"/>
+      <c r="C6" s="220">
+        <f>COUNTIF(F24:HE24,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="90">
+        <f>COUNTIF(E23:HE23,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E23:HE23,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E23:HE23,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="223">
+        <f>COUNTA(E8:HH8)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="91"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="236">
-        <v>27</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="226" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="242" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="246">
-        <f>COUNTIF(F38:HQ38,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248">
-        <f>COUNTIF(F38:HQ38,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E37:HQ37,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E37:HQ37,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E37:HQ37,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="251">
-        <f>COUNTA(E9:HT9)</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="249"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100"/>
-      <c r="V11" s="89"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="95"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
+      <c r="B12" s="95" t="s">
+        <v>137</v>
+      </c>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
-      <c r="E12" s="101"/>
+      <c r="E12" s="103"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="99"/>
+      <c r="D13" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="103"/>
+      <c r="F13" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="95" t="s">
-        <v>141</v>
-      </c>
+      <c r="K13" s="89"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
+      <c r="D14" s="174">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="103"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
+      <c r="G14" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
       <c r="D15" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="99" t="s">
-        <v>78</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="W15" s="89"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="183">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="103"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="99"/>
+      <c r="H15" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="102"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="181"/>
+      <c r="F18" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="118"/>
       <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="104"/>
+      <c r="G19" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="99"/>
       <c r="G20" s="99"/>
       <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A21" s="138"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="118"/>
       <c r="F21" s="99"/>
       <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
+      <c r="H21" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A22" s="138"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="99"/>
       <c r="G22" s="99"/>
       <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="116"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="192"/>
-      <c r="F28" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="119" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="146" t="s">
+      <c r="B23" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="253" t="s">
+      <c r="C23" s="225"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="128" t="s">
+      <c r="G23" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A24" s="139"/>
+      <c r="B24" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="129"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="254" t="s">
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131" t="s">
+      <c r="G24" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A25" s="139"/>
+      <c r="B25" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="255" t="s">
+      <c r="C25" s="211"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G25" s="127">
+        <v>39139</v>
+      </c>
+      <c r="H25" s="127">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A26" s="140"/>
+      <c r="B26" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="G39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="H39" s="133">
-        <v>39140</v>
-      </c>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-    </row>
-    <row r="40" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="137"/>
-    </row>
-    <row r="41" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+    </row>
+    <row r="27" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A27" s="92"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -10225,15 +8297,32 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H22">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -10248,10 +8337,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -10270,60 +8359,60 @@
     <col min="22" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="F2" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="243" t="s">
+        <v>141</v>
+      </c>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="F2" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="223" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -10331,221 +8420,171 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233">
+        <v>29</v>
+      </c>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="235"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="234">
-        <v>300</v>
-      </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="231" t="s">
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="238"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="218">
+        <f>COUNTIF(F22:HE22,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="219"/>
+      <c r="C6" s="220">
+        <f>COUNTIF(F22:HE22,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="90">
+        <f>COUNTIF(E21:HE21,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E21:HE21,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E21:HE21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="223">
+        <f>COUNTA(E8:HH8)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="91"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="93"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="236">
-        <v>29</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="226" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="242" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="246">
-        <f>COUNTIF(F38:HQ38,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248">
-        <f>COUNTIF(F38:HQ38,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E37:HQ37,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E37:HQ37,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E37:HQ37,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="251">
-        <f>COUNTA(E9:HT9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="249"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
       <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="J10" s="89"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
       <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100"/>
-      <c r="V11" s="89"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -10553,694 +8592,187 @@
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
       <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="95"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="95" t="s">
+        <v>140</v>
+      </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
-      <c r="E13" s="102"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="95" t="s">
-        <v>144</v>
-      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="99"/>
       <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="K14" s="89"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="99"/>
+      <c r="D15" s="174">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="W15" s="89"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="103"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
+      <c r="H16" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="99"/>
       <c r="G18" s="99"/>
       <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="118"/>
       <c r="F19" s="99"/>
       <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="116"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="146" t="s">
+      <c r="H19" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="253" t="s">
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="129"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="254" t="s">
+      <c r="G21" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="210" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131" t="s">
+      <c r="G22" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="255" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39140</v>
+      </c>
+      <c r="H23" s="127">
+        <v>39141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-    </row>
-    <row r="40" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="137"/>
-    </row>
-    <row r="41" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+    </row>
+    <row r="25" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -11249,16 +8781,33 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:H21">
       <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H20">
+      <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
@@ -11272,10 +8821,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -11294,60 +8843,60 @@
     <col min="22" max="16384" width="9" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="82"/>
       <c r="B1" s="83"/>
     </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A2" s="219" t="s">
+    <row r="2" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A2" s="239" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="F2" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="243" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="244"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A3" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="227"/>
+      <c r="C3" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="221" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="222"/>
-      <c r="F2" s="220" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="220"/>
-      <c r="L2" s="223" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="224"/>
-      <c r="N2" s="224"/>
-      <c r="O2" s="224"/>
-      <c r="P2" s="224"/>
-      <c r="Q2" s="224"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="233"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -11355,916 +8904,332 @@
       <c r="S3" s="86"/>
       <c r="T3" s="87"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1">
+    <row r="4" spans="1:22" ht="13.5" customHeight="1">
       <c r="A4" s="226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="227"/>
+      <c r="C4" s="228">
+        <v>300</v>
+      </c>
+      <c r="D4" s="229"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="230" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="232"/>
+      <c r="L4" s="233">
+        <v>29</v>
+      </c>
+      <c r="M4" s="234"/>
+      <c r="N4" s="234"/>
+      <c r="O4" s="234"/>
+      <c r="P4" s="234"/>
+      <c r="Q4" s="234"/>
+      <c r="R4" s="234"/>
+      <c r="S4" s="234"/>
+      <c r="T4" s="235"/>
+      <c r="V4" s="89"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A5" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="216"/>
+      <c r="E5" s="217"/>
+      <c r="F5" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="216" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="234">
-        <v>300</v>
-      </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="231" t="s">
+      <c r="M5" s="216"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="237" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="216"/>
+      <c r="Q5" s="216"/>
+      <c r="R5" s="216"/>
+      <c r="S5" s="216"/>
+      <c r="T5" s="238"/>
+      <c r="V5" s="89"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="218">
+        <f>COUNTIF(F22:HD22,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="219"/>
+      <c r="C6" s="220">
+        <f>COUNTIF(F22:HD22,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="221"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="220">
+        <f>SUM(O6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="90">
+        <f>COUNTIF(E21:HD21,"N")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="90">
+        <f>COUNTIF(E21:HD21,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E21:HD21,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="223">
+        <f>COUNTA(E8:HG8)</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="221"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="91"/>
+    </row>
+    <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:22" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="82"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
-      <c r="L4" s="236">
-        <v>29</v>
-      </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="237"/>
-      <c r="P4" s="237"/>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="238"/>
-      <c r="V4" s="89"/>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A5" s="226" t="s">
+      <c r="B9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="227"/>
-      <c r="C5" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="239"/>
-      <c r="P5" s="239"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A6" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="258"/>
-      <c r="C6" s="241" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="259"/>
-      <c r="F6" s="241" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="243"/>
-      <c r="L6" s="242" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="242"/>
-      <c r="N6" s="242"/>
-      <c r="O6" s="244" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="242"/>
-      <c r="Q6" s="242"/>
-      <c r="R6" s="242"/>
-      <c r="S6" s="242"/>
-      <c r="T6" s="245"/>
-      <c r="V6" s="89"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A7" s="246">
-        <f>COUNTIF(F38:HQ38,"P")</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="248">
-        <f>COUNTIF(F38:HQ38,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="248">
-        <f>SUM(O7,- A7,- C7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="249"/>
-      <c r="K7" s="250"/>
-      <c r="L7" s="90">
-        <f>COUNTIF(E37:HQ37,"N")</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="90">
-        <f>COUNTIF(E37:HQ37,"A")</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="90">
-        <f>COUNTIF(E37:HQ37,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="251">
-        <f>COUNTA(E9:HT9)</f>
-        <v>1</v>
-      </c>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="249"/>
-      <c r="R7" s="249"/>
-      <c r="S7" s="249"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="91"/>
-    </row>
-    <row r="8" spans="1:23" ht="11.25" thickBot="1"/>
-    <row r="9" spans="1:23" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="142" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A10" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A10" s="136"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99"/>
-      <c r="T10" s="100"/>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="I10" s="89"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A11" s="136"/>
       <c r="B11" s="95"/>
       <c r="C11" s="96"/>
-      <c r="D11" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="101"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="100"/>
-      <c r="V11" s="89"/>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A12" s="136"/>
       <c r="B12" s="95"/>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="95"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A13" s="136"/>
+      <c r="B13" s="95" t="s">
+        <v>143</v>
+      </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
-      <c r="E13" s="102"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
-    </row>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="95" t="s">
-        <v>147</v>
-      </c>
+    </row>
+    <row r="14" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A14" s="136"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="103"/>
+      <c r="F14" s="99" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="100"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="100"/>
-      <c r="W15" s="89"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
+      <c r="D15" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A16" s="136"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="103"/>
       <c r="F16" s="99"/>
       <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="100"/>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="103"/>
-    </row>
-    <row r="18" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A18" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="99"/>
       <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="100"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="118"/>
       <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
-    </row>
-    <row r="21" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="100"/>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="100"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="100"/>
-    </row>
-    <row r="25" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
-    </row>
-    <row r="26" spans="1:21" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
-    </row>
-    <row r="27" spans="1:21" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A27" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="116"/>
-    </row>
-    <row r="28" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A28" s="147"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="100"/>
-    </row>
-    <row r="29" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A29" s="147"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="100"/>
-    </row>
-    <row r="30" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A30" s="147"/>
-      <c r="B30" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="100"/>
-    </row>
-    <row r="31" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A31" s="147"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="S31" s="99"/>
-      <c r="T31" s="100"/>
-    </row>
-    <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
-      <c r="S32" s="99"/>
-      <c r="T32" s="100"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A33" s="147"/>
-      <c r="B33" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
-      <c r="S33" s="99"/>
-      <c r="T33" s="100"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A34" s="147"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="100"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A35" s="147"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="126"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="126"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="126"/>
-      <c r="R35" s="126"/>
-      <c r="S35" s="126"/>
-      <c r="T35" s="127"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="147"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="126"/>
-      <c r="P36" s="126"/>
-      <c r="Q36" s="126"/>
-      <c r="R36" s="126"/>
-      <c r="S36" s="126"/>
-      <c r="T36" s="127"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A37" s="146" t="s">
+      <c r="G19" s="99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="253" t="s">
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="253"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="129"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="254" t="s">
+      <c r="G21" s="124" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="210" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="254"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="131" t="s">
+      <c r="G22" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="131"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="131"/>
-      <c r="P38" s="131"/>
-      <c r="Q38" s="131"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="132"/>
-    </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="255" t="s">
+      <c r="C23" s="211"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
+        <v>39139</v>
+      </c>
+      <c r="G23" s="127">
+        <v>39140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="255"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="133">
-        <v>39139</v>
-      </c>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="134"/>
-    </row>
-    <row r="40" spans="1:20" ht="11.25" thickBot="1">
-      <c r="A40" s="149"/>
-      <c r="B40" s="256" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="136"/>
-      <c r="N40" s="136"/>
-      <c r="O40" s="136"/>
-      <c r="P40" s="136"/>
-      <c r="Q40" s="136"/>
-      <c r="R40" s="136"/>
-      <c r="S40" s="136"/>
-      <c r="T40" s="137"/>
-    </row>
-    <row r="41" spans="1:20" ht="11.25" thickTop="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="84"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="O7:T7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:T5"/>
+  <mergeCells count="25">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -12273,15 +9238,32 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37:T37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:T38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:T36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Report_Unit-Test-Case.xlsx
+++ b/WIP/Users/LinhNH/Veazy_Unit_Test_Case/Veazy_Report_Unit-Test-Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ガイドライン" sheetId="13" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <definedName name="getLessonVersion" localSheetId="7">#REF!</definedName>
     <definedName name="getLessonVersion" localSheetId="4">#REF!</definedName>
     <definedName name="getLessonVersion">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">deleteReport!$A$1:$T$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">getAllReports!$A$1:$T$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">deleteReport!$A$1:$T$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">getAllReports!$A$1:$T$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">getReport!$A$1:$T$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">readReport!$A$1:$T$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">readReport!$A$1:$T$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">saveReport!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ガイドライン!$A$1:$A$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト報告!$A$1:$I$45</definedName>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="154">
   <si>
     <r>
       <rPr>
@@ -1183,9 +1183,6 @@
     <t>saveReport</t>
   </si>
   <si>
-    <t>Function22</t>
-  </si>
-  <si>
     <t>valid report Id</t>
   </si>
   <si>
@@ -1195,9 +1192,6 @@
     <t>getReport</t>
   </si>
   <si>
-    <t>Function23</t>
-  </si>
-  <si>
     <t>List&lt;ReportModel&gt;</t>
   </si>
   <si>
@@ -1210,18 +1204,12 @@
     <t>getAllReports</t>
   </si>
   <si>
-    <t>Function24</t>
-  </si>
-  <si>
     <t>report Id</t>
   </si>
   <si>
     <t>readReport</t>
   </si>
   <si>
-    <t>Function25</t>
-  </si>
-  <si>
     <t>reportId</t>
   </si>
   <si>
@@ -1231,9 +1219,6 @@
     <t>ReportServiceImpl</t>
   </si>
   <si>
-    <t>Function21</t>
-  </si>
-  <si>
     <t>Veazy_Report_Unit_Test_Case_v1.0</t>
   </si>
   <si>
@@ -1244,6 +1229,30 @@
   </si>
   <si>
     <t>null exception</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>isReadFlag = true</t>
+  </si>
+  <si>
+    <t>isDeleteFlag = true</t>
+  </si>
+  <si>
+    <t>Function8</t>
+  </si>
+  <si>
+    <t>Function9</t>
+  </si>
+  <si>
+    <t>Function10</t>
+  </si>
+  <si>
+    <t>Function11</t>
+  </si>
+  <si>
+    <t>Function12</t>
   </si>
 </sst>
 </file>
@@ -2870,7 +2879,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -3354,6 +3363,9 @@
     <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="42" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -3430,6 +3442,99 @@
     <xf numFmtId="14" fontId="44" fillId="24" borderId="11" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="72" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="73" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="29" borderId="32" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -3445,12 +3550,6 @@
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="47" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -3460,93 +3559,8 @@
     <xf numFmtId="0" fontId="35" fillId="30" borderId="69" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="67" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="65" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="68" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="45" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="66" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="51" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="64" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="28" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="30" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="58" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="47" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="60" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="58" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="59" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="71" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="46" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="46" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="72" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="73" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="30" borderId="74" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="62" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="43" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="63" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="31" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="50" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3774,7 +3788,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3804,7 +3820,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4228,7 +4244,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4482,7 +4498,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4509,7 +4527,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -4937,7 +4955,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5796,13 +5814,13 @@
   <sheetData>
     <row r="2" spans="1:6" s="142" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="141"/>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="143"/>
@@ -5813,11 +5831,11 @@
       <c r="A4" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
       <c r="E4" s="148" t="s">
         <v>2</v>
       </c>
@@ -5829,25 +5847,25 @@
       <c r="A5" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
       <c r="E5" s="147" t="s">
         <v>120</v>
       </c>
       <c r="F5" s="149"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="188" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
+      <c r="B6" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
       <c r="E6" s="148" t="s">
         <v>6</v>
       </c>
@@ -5856,10 +5874,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="187"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="148" t="s">
         <v>7</v>
       </c>
@@ -5997,7 +6015,7 @@
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F11:F15"/>
+      <selection activeCell="F11" sqref="F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6031,40 +6049,40 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="191" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="192" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="194"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="191" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="194"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="79">
         <v>100</v>
       </c>
@@ -6073,18 +6091,18 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="194" t="s">
+      <c r="B7" s="190"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9"/>
@@ -6138,16 +6156,16 @@
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F11" s="182" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -6158,16 +6176,16 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F12" s="182" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
@@ -6178,16 +6196,16 @@
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F13" s="182" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
@@ -6198,16 +6216,16 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F14" s="182" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
@@ -6218,16 +6236,16 @@
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F15" s="182" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
@@ -6304,11 +6322,11 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F12" location="getReport!A1" display="Function22"/>
-    <hyperlink ref="F15" location="deleteReport!A1" display="Function25"/>
-    <hyperlink ref="F13" location="getAllReports!A1" display="Function23"/>
-    <hyperlink ref="F11" location="saveReport!A1" display="Function21"/>
-    <hyperlink ref="F14" location="readReport!A1" display="Function24"/>
+    <hyperlink ref="F12" location="getReport!A1" display="Function9"/>
+    <hyperlink ref="F15" location="deleteReport!A1" display="Function12"/>
+    <hyperlink ref="F13" location="getAllReports!A1" display="Function10"/>
+    <hyperlink ref="F11" location="saveReport!A1" display="Function8"/>
+    <hyperlink ref="F14" location="readReport!A1" display="Function11"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6322,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6340,17 +6358,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1">
       <c r="A3" s="35"/>
@@ -6367,72 +6385,72 @@
       <c r="A4" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="202" t="str">
+      <c r="B4" s="203" t="str">
         <f>表紙!B4</f>
         <v>VIETNAMESE STUDY SYSTEM FOR JAPANESE</v>
       </c>
-      <c r="C4" s="202"/>
-      <c r="D4" s="203" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="203"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="206"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1">
       <c r="A5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="202" t="str">
+      <c r="B5" s="203" t="str">
         <f>表紙!B5</f>
         <v>Veazy</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="203" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="206"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="207"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="202" t="str">
+      <c r="B6" s="203" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>Veazy_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="203" t="s">
+      <c r="C6" s="203"/>
+      <c r="D6" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="203"/>
-      <c r="F6" s="207">
+      <c r="E6" s="204"/>
+      <c r="F6" s="208">
         <v>42585</v>
       </c>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="209"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="38"/>
@@ -6501,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="182" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" s="47">
         <f>saveReport!A6</f>
@@ -6537,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="182" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C13" s="47">
         <f>getReport!A6</f>
@@ -6573,7 +6591,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="182" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C14" s="47">
         <f>getAllReports!A6</f>
@@ -6609,11 +6627,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="182" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C15" s="47">
         <f>readReport!A6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="47">
         <f>readReport!C6</f>
@@ -6629,7 +6647,7 @@
       </c>
       <c r="G15" s="47">
         <f>readReport!M6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="47">
         <f>readReport!N6</f>
@@ -6637,7 +6655,7 @@
       </c>
       <c r="I15" s="47">
         <f>readReport!O6</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.5">
@@ -6645,11 +6663,11 @@
         <v>5</v>
       </c>
       <c r="B16" s="182" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C16" s="47">
         <f>deleteReport!A6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="47">
         <f>deleteReport!C6</f>
@@ -6665,7 +6683,7 @@
       </c>
       <c r="G16" s="47">
         <f>deleteReport!M6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="47">
         <f>deleteReport!N6</f>
@@ -6673,7 +6691,7 @@
       </c>
       <c r="I16" s="47">
         <f>deleteReport!O6</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6727,7 +6745,7 @@
       </c>
       <c r="C21" s="50">
         <f t="shared" ref="C21:I21" si="0">SUM(C10:C20)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="50">
         <f t="shared" si="0"/>
@@ -6743,7 +6761,7 @@
       </c>
       <c r="G21" s="50">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" s="50">
         <f t="shared" si="0"/>
@@ -6751,7 +6769,7 @@
       </c>
       <c r="I21" s="50">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6808,7 +6826,7 @@
       <c r="C25" s="40"/>
       <c r="D25" s="62">
         <f>F21*100/I21</f>
-        <v>38.46153846153846</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>30</v>
@@ -6820,7 +6838,7 @@
       </c>
       <c r="D26" s="62">
         <f>G21*100/I21</f>
-        <v>61.53846153846154</v>
+        <v>54.545454545454547</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>30</v>
@@ -6854,11 +6872,11 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" location="getReport!A1" display="Function22"/>
-    <hyperlink ref="B16" location="deleteReport!A1" display="Function25"/>
-    <hyperlink ref="B14" location="getAllReports!A1" display="Function23"/>
-    <hyperlink ref="B12" location="saveReport!A1" display="Function21"/>
-    <hyperlink ref="B15" location="readReport!A1" display="Function24"/>
+    <hyperlink ref="B13" location="getReport!A1" display="Function9"/>
+    <hyperlink ref="B16" location="deleteReport!A1" display="Function12"/>
+    <hyperlink ref="B14" location="getAllReports!A1" display="Function10"/>
+    <hyperlink ref="B12" location="saveReport!A1" display="Function8"/>
+    <hyperlink ref="B15" location="readReport!A1" display="Function11"/>
   </hyperlinks>
   <pageMargins left="0.65" right="0.65" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6874,7 +6892,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -6898,55 +6916,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="242"/>
-      <c r="F2" s="240" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="213" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="243" t="s">
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -6955,90 +6973,90 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228">
+      <c r="B4" s="219"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="229"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233">
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="234">
         <v>29</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="215" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="216" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="237" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="241"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="218">
+      <c r="A6" s="248">
         <f>COUNTIF(F19:HC19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="220">
+      <c r="B6" s="249"/>
+      <c r="C6" s="226">
         <f>COUNTIF(F19:HC19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220">
+      <c r="D6" s="227"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="226">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="228"/>
       <c r="L6" s="90">
         <f>COUNTIF(E18:HC18,"N")</f>
         <v>1</v>
@@ -7051,15 +7069,15 @@
         <f>COUNTIF(E18:HC18,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="223">
+      <c r="O6" s="229">
         <f>COUNTA(E8:HF8)</f>
         <v>2</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="230"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7096,7 +7114,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -7179,7 +7197,7 @@
       <c r="B17" s="114"/>
       <c r="C17" s="115"/>
       <c r="D17" s="116" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E17" s="183"/>
       <c r="F17" s="99"/>
@@ -7191,11 +7209,11 @@
       <c r="A18" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
       <c r="E18" s="180"/>
       <c r="F18" s="124" t="s">
         <v>39</v>
@@ -7206,11 +7224,11 @@
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
       <c r="A19" s="139"/>
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="125"/>
       <c r="F19" s="126" t="s">
         <v>43</v>
@@ -7221,11 +7239,11 @@
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
       <c r="A20" s="139"/>
-      <c r="B20" s="211" t="s">
+      <c r="B20" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
+      <c r="C20" s="243"/>
+      <c r="D20" s="243"/>
       <c r="E20" s="118"/>
       <c r="F20" s="127">
         <v>39139</v>
@@ -7236,11 +7254,11 @@
     </row>
     <row r="21" spans="1:7" ht="11.25" thickBot="1">
       <c r="A21" s="140"/>
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="244"/>
       <c r="E21" s="128"/>
       <c r="F21" s="129"/>
       <c r="G21" s="129"/>
@@ -7253,14 +7271,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="B18:D18"/>
@@ -7271,13 +7288,14 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G18">
@@ -7304,7 +7322,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7328,55 +7346,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="242"/>
-      <c r="F2" s="240" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="213" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="243" t="s">
-        <v>133</v>
-      </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="215" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -7385,90 +7403,90 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228">
+      <c r="B4" s="219"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="229"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233">
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="234">
         <v>27</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="215" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="216" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="237" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="241"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="218">
+      <c r="A6" s="248">
         <f>COUNTIF(F24:HE24,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="220">
+      <c r="B6" s="249"/>
+      <c r="C6" s="226">
         <f>COUNTIF(F24:HE24,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220">
+      <c r="D6" s="227"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="226">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="228"/>
       <c r="L6" s="90">
         <f>COUNTIF(E23:HE23,"N")</f>
         <v>1</v>
@@ -7481,15 +7499,15 @@
         <f>COUNTIF(E23:HE23,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="223">
+      <c r="O6" s="229">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="230"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -7531,7 +7549,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -7562,7 +7580,7 @@
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
@@ -7576,7 +7594,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
@@ -7655,9 +7673,7 @@
       <c r="G19" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="99" t="s">
-        <v>74</v>
-      </c>
+      <c r="H19" s="99"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1">
       <c r="A20" s="138"/>
@@ -7676,7 +7692,7 @@
       <c r="B21" s="114"/>
       <c r="C21" s="117"/>
       <c r="D21" s="116" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E21" s="118"/>
       <c r="F21" s="99"/>
@@ -7699,11 +7715,11 @@
       <c r="A23" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="225" t="s">
+      <c r="B23" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
+      <c r="C23" s="231"/>
+      <c r="D23" s="231"/>
       <c r="E23" s="180"/>
       <c r="F23" s="124" t="s">
         <v>39</v>
@@ -7717,11 +7733,11 @@
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1">
       <c r="A24" s="139"/>
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
       <c r="E24" s="125"/>
       <c r="F24" s="126" t="s">
         <v>43</v>
@@ -7735,11 +7751,11 @@
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1">
       <c r="A25" s="139"/>
-      <c r="B25" s="211" t="s">
+      <c r="B25" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
+      <c r="C25" s="243"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="118"/>
       <c r="F25" s="127">
         <v>39139</v>
@@ -7753,11 +7769,11 @@
     </row>
     <row r="26" spans="1:8" ht="11.25" thickBot="1">
       <c r="A26" s="140"/>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
       <c r="E26" s="128"/>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
@@ -7771,14 +7787,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="B23:D23"/>
@@ -7789,13 +7804,14 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
@@ -7819,10 +7835,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -7846,55 +7862,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="242"/>
-      <c r="F2" s="240" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="213" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="243" t="s">
-        <v>138</v>
-      </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="215" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -7903,111 +7919,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228">
+      <c r="B4" s="219"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="229"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233">
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="234">
         <v>27</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="215" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="216" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="237" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="241"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="218">
-        <f>COUNTIF(F24:HE24,"P")</f>
+      <c r="A6" s="248">
+        <f>COUNTIF(F22:HE22,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="220">
-        <f>COUNTIF(F24:HE24,"F")</f>
+      <c r="B6" s="249"/>
+      <c r="C6" s="226">
+        <f>COUNTIF(F22:HE22,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220">
+      <c r="D6" s="227"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="226">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="228"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E23:HE23,"N")</f>
+        <f>COUNTIF(E21:HE21,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E23:HE23,"A")</f>
+        <f>COUNTIF(E21:HE21,"A")</f>
         <v>2</v>
       </c>
       <c r="N6" s="90">
-        <f>COUNTIF(E23:HE23,"B")</f>
+        <f>COUNTIF(E21:HE21,"B")</f>
         <v>0</v>
       </c>
-      <c r="O6" s="223">
+      <c r="O6" s="229">
         <f>COUNTA(E8:HH8)</f>
         <v>3</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="230"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -8049,7 +8065,7 @@
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
@@ -8070,7 +8086,7 @@
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
       <c r="B12" s="95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="97"/>
@@ -8084,7 +8100,7 @@
       <c r="B13" s="95"/>
       <c r="C13" s="96"/>
       <c r="D13" s="97" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E13" s="103"/>
       <c r="F13" s="99" t="s">
@@ -8152,7 +8168,7 @@
       <c r="B18" s="114"/>
       <c r="C18" s="115"/>
       <c r="D18" s="116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" s="181"/>
       <c r="F18" s="99" t="s">
@@ -8177,11 +8193,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1">
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A20" s="138"/>
-      <c r="B20" s="114" t="s">
-        <v>60</v>
-      </c>
+      <c r="B20" s="114"/>
       <c r="C20" s="117"/>
       <c r="D20" s="116"/>
       <c r="E20" s="118"/>
@@ -8189,106 +8203,99 @@
       <c r="G20" s="99"/>
       <c r="H20" s="99"/>
     </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A21" s="138"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="138"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A23" s="137" t="s">
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="225" t="s">
+      <c r="B21" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="124" t="s">
+      <c r="C21" s="231"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="124" t="s">
+      <c r="G21" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="124" t="s">
+      <c r="H21" s="124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A24" s="139"/>
-      <c r="B24" s="210" t="s">
+    <row r="22" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A22" s="139"/>
+      <c r="B22" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126" t="s">
+      <c r="C22" s="242"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="126" t="s">
+      <c r="G22" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="126" t="s">
+      <c r="H22" s="126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A25" s="139"/>
-      <c r="B25" s="211" t="s">
+    <row r="23" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="211"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="127">
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="127">
         <v>39139</v>
       </c>
-      <c r="G25" s="127">
+      <c r="G23" s="127">
         <v>39139</v>
       </c>
-      <c r="H25" s="127">
+      <c r="H23" s="127">
         <v>39140</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="11.25" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="212" t="s">
+    <row r="24" spans="1:8" ht="11.25" thickBot="1">
+      <c r="A24" s="140"/>
+      <c r="B24" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-    </row>
-    <row r="27" spans="1:8" ht="11.25" thickTop="1">
-      <c r="A27" s="92"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="84"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+    </row>
+    <row r="25" spans="1:8" ht="11.25" thickTop="1">
+      <c r="A25" s="92"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -8297,32 +8304,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:H21">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H20">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8337,10 +8327,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8364,55 +8354,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="242"/>
-      <c r="F2" s="240" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="213" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="243" t="s">
-        <v>141</v>
-      </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8421,109 +8411,109 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="229"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233">
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="234">
         <v>29</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="215" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="216" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="237" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="241"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="218">
-        <f>COUNTIF(F22:HE22,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="220">
-        <f>COUNTIF(F22:HE22,"F")</f>
+      <c r="A6" s="248">
+        <f>COUNTIF(F23:HD23,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="249"/>
+      <c r="C6" s="226">
+        <f>COUNTIF(F23:HD23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220">
+      <c r="D6" s="227"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="226">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="228"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E21:HE21,"N")</f>
+        <f>COUNTIF(E22:HD22,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E21:HE21,"A")</f>
+        <f>COUNTIF(E22:HD22,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E22:HD22,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="229">
+        <f>COUNTA(E8:HG8)</f>
         <v>2</v>
       </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E21:HE21,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="223">
-        <f>COUNTA(E8:HH8)</f>
-        <v>3</v>
-      </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="230"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -8539,12 +8529,9 @@
       <c r="G8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="93"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="82"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
@@ -8558,20 +8545,18 @@
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
       <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="J10" s="89"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -8581,7 +8566,6 @@
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
       <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -8591,34 +8575,31 @@
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
       <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="103"/>
       <c r="F13" s="99"/>
       <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="K14" s="89"/>
+      <c r="J14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
@@ -8632,147 +8613,158 @@
       <c r="G15" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="99"/>
-    </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
       <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="184"/>
+      <c r="F18" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="102"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A18" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="114" t="s">
+      <c r="G18" s="99"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="250"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="116" t="s">
-        <v>150</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99" t="s">
+      <c r="C20" s="117"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A21" s="138"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="118"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A21" s="137" t="s">
+    <row r="22" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A22" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B22" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="124" t="s">
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G22" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A22" s="139"/>
-      <c r="B22" s="210" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="139"/>
+      <c r="B23" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126" t="s">
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="G23" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A23" s="139"/>
-      <c r="B23" s="211" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A24" s="139"/>
+      <c r="B24" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="127">
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="127">
         <v>39139</v>
       </c>
-      <c r="G23" s="127">
+      <c r="G24" s="127">
         <v>39140</v>
       </c>
-      <c r="H23" s="127">
-        <v>39141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="11.25" thickBot="1">
-      <c r="A24" s="140"/>
-      <c r="B24" s="212" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="11.25" thickBot="1">
+      <c r="A25" s="140"/>
+      <c r="B25" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-    </row>
-    <row r="25" spans="1:8" ht="11.25" thickTop="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="84"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+    </row>
+    <row r="26" spans="1:7" ht="11.25" thickTop="1">
+      <c r="A26" s="92"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -8781,32 +8773,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:G23">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G21">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
@@ -8821,10 +8796,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1"/>
@@ -8848,55 +8823,55 @@
       <c r="B1" s="83"/>
     </row>
     <row r="2" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="242"/>
-      <c r="F2" s="240" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="213" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="214"/>
+      <c r="F2" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="240"/>
-      <c r="K2" s="240"/>
-      <c r="L2" s="243" t="s">
-        <v>144</v>
-      </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="244"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="244"/>
-      <c r="Q2" s="244"/>
-      <c r="R2" s="244"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="215" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="217"/>
     </row>
     <row r="3" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A3" s="226" t="s">
+      <c r="A3" s="218" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="246" t="s">
+      <c r="B3" s="219"/>
+      <c r="C3" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="230" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="223" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="247"/>
-      <c r="M3" s="247"/>
-      <c r="N3" s="247"/>
+      <c r="G3" s="224"/>
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="221"/>
+      <c r="M3" s="221"/>
+      <c r="N3" s="221"/>
       <c r="O3" s="86"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="86"/>
@@ -8905,111 +8880,111 @@
       <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228">
+      <c r="B4" s="219"/>
+      <c r="C4" s="232">
         <v>300</v>
       </c>
-      <c r="D4" s="229"/>
+      <c r="D4" s="233"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="230" t="s">
+      <c r="F4" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="231"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="233">
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="224"/>
+      <c r="J4" s="224"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="234">
         <v>29</v>
       </c>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="236"/>
       <c r="V4" s="89"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="213" t="s">
+      <c r="A5" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="215" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="237" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="216"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="215" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="247"/>
+      <c r="F5" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="216" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="238"/>
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="216"/>
-      <c r="N5" s="216"/>
-      <c r="O5" s="237" t="s">
+      <c r="M5" s="238"/>
+      <c r="N5" s="238"/>
+      <c r="O5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="216"/>
-      <c r="R5" s="216"/>
-      <c r="S5" s="216"/>
-      <c r="T5" s="238"/>
+      <c r="P5" s="238"/>
+      <c r="Q5" s="238"/>
+      <c r="R5" s="238"/>
+      <c r="S5" s="238"/>
+      <c r="T5" s="241"/>
       <c r="V5" s="89"/>
     </row>
     <row r="6" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="218">
-        <f>COUNTIF(F22:HD22,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="219"/>
-      <c r="C6" s="220">
-        <f>COUNTIF(F22:HD22,"F")</f>
+      <c r="A6" s="248">
+        <f>COUNTIF(F21:HC21,"P")</f>
+        <v>1</v>
+      </c>
+      <c r="B6" s="249"/>
+      <c r="C6" s="226">
+        <f>COUNTIF(F21:HC21,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="220">
+      <c r="D6" s="227"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="226">
         <f>SUM(O6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="222"/>
+      <c r="G6" s="227"/>
+      <c r="H6" s="227"/>
+      <c r="I6" s="227"/>
+      <c r="J6" s="227"/>
+      <c r="K6" s="228"/>
       <c r="L6" s="90">
-        <f>COUNTIF(E21:HD21,"N")</f>
+        <f>COUNTIF(E20:HC20,"N")</f>
         <v>1</v>
       </c>
       <c r="M6" s="90">
-        <f>COUNTIF(E21:HD21,"A")</f>
+        <f>COUNTIF(E20:HC20,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="90">
+        <f>COUNTIF(E20:HC20,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="229">
+        <f>COUNTA(E8:HF8)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="90">
-        <f>COUNTIF(E21:HD21,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="223">
-        <f>COUNTA(E8:HG8)</f>
-        <v>2</v>
-      </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="224"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="227"/>
+      <c r="R6" s="227"/>
+      <c r="S6" s="227"/>
+      <c r="T6" s="230"/>
       <c r="U6" s="91"/>
     </row>
     <row r="7" spans="1:22" ht="11.25" thickBot="1"/>
@@ -9022,12 +8997,9 @@
       <c r="F8" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="82"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:22" ht="13.5" customHeight="1">
       <c r="A9" s="135" t="s">
@@ -9040,19 +9012,17 @@
       <c r="D9" s="97"/>
       <c r="E9" s="98"/>
       <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:22" ht="13.5" customHeight="1">
       <c r="A10" s="136"/>
       <c r="B10" s="95"/>
       <c r="C10" s="96"/>
       <c r="D10" s="97" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="I10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:22" ht="13.5" customHeight="1">
       <c r="A11" s="136"/>
@@ -9061,7 +9031,6 @@
       <c r="D11" s="97"/>
       <c r="E11" s="100"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1">
       <c r="A12" s="136"/>
@@ -9070,166 +9039,152 @@
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:22" ht="13.5" customHeight="1">
       <c r="A13" s="136"/>
       <c r="B13" s="95" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="97"/>
       <c r="E13" s="103"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:22" ht="13.5" customHeight="1">
       <c r="A14" s="136"/>
       <c r="B14" s="95"/>
       <c r="C14" s="96"/>
       <c r="D14" s="97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="103"/>
       <c r="F14" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="J14" s="89"/>
+      <c r="I14" s="89"/>
     </row>
     <row r="15" spans="1:22" ht="13.5" customHeight="1">
       <c r="A15" s="136"/>
       <c r="B15" s="95"/>
       <c r="C15" s="96"/>
-      <c r="D15" s="174" t="s">
-        <v>36</v>
-      </c>
+      <c r="D15" s="97"/>
       <c r="E15" s="103"/>
       <c r="F15" s="99"/>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="102"/>
+    </row>
+    <row r="16" spans="1:22" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A17" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="99"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="118"/>
+      <c r="F18" s="99" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="102"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-    </row>
-    <row r="18" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A18" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" thickBot="1">
       <c r="A19" s="138"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="116" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="138"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-    </row>
-    <row r="21" spans="1:7" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A21" s="137" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A20" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="225" t="s">
+      <c r="B20" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="225"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="124" t="s">
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="124" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A21" s="139"/>
+      <c r="B21" s="242" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="126" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1">
       <c r="A22" s="139"/>
-      <c r="B22" s="210" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="126" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="139"/>
-      <c r="B23" s="211" t="s">
+      <c r="B22" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="211"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="127">
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="127">
         <v>39139</v>
       </c>
-      <c r="G23" s="127">
-        <v>39140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="11.25" thickBot="1">
-      <c r="A24" s="140"/>
-      <c r="B24" s="212" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="11.25" thickBot="1">
+      <c r="A23" s="140"/>
+      <c r="B23" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-    </row>
-    <row r="25" spans="1:7" ht="11.25" thickTop="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="84"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+    </row>
+    <row r="24" spans="1:6" ht="11.25" thickTop="1">
+      <c r="A24" s="92"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:T5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:K2"/>
@@ -9238,32 +9193,15 @@
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20">
       <formula1>"N,A,B, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21">
       <formula1>"P,F, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:G20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
